--- a/RCN2023.xlsx
+++ b/RCN2023.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275A9115-C6DA-4DDE-B05C-D186A706F5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84594A5D-3E68-4EB0-BD42-5B257845E7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="C_11" sheetId="1" r:id="rId1"/>
+    <sheet name="C_11.2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -265,10 +265,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -523,7 +523,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1180,12 +1180,12 @@
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="N23" s="13" t="s">
+      <c r="N23" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="N24" s="13" t="s">
+      <c r="N24" s="12" t="s">
         <v>19</v>
       </c>
     </row>

--- a/RCN2023.xlsx
+++ b/RCN2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84594A5D-3E68-4EB0-BD42-5B257845E7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F99B56D-92F8-4B02-832F-31E1F5BA2CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:N24"/>
+  <dimension ref="B2:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1172,20 +1172,15 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="N21" s="12" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="N23" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="N24" s="12" t="s">
+      <c r="N22" s="12" t="s">
         <v>19</v>
       </c>
     </row>

--- a/RCN2023.xlsx
+++ b/RCN2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Infraestructura Carretera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F99B56D-92F8-4B02-832F-31E1F5BA2CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0DE097-4470-4949-BF4E-A703FA0FBA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_11.2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Alimentadora</t>
   </si>
@@ -92,16 +92,13 @@
     <t>(Kilómetros)</t>
   </si>
   <si>
-    <t>Ultima actualización: mayo 2024</t>
-  </si>
-  <si>
-    <t>Dirección General de Planeación</t>
-  </si>
-  <si>
     <t>Nota: El concepto por tipo de camino apartado cuota, incluye las estatales de cuota.</t>
   </si>
   <si>
     <t>Fuente: SICT. Subsecretaria de Infraestructura.</t>
+  </si>
+  <si>
+    <t>Actualización: mayo 2024</t>
   </si>
 </sst>
 </file>
@@ -250,7 +247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
@@ -269,6 +266,7 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -510,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:N22"/>
+  <dimension ref="B2:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1161,28 +1159,41 @@
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="12" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="12" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
         <v>19</v>
       </c>
+      <c r="N23" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/RCN2023.xlsx
+++ b/RCN2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0DE097-4470-4949-BF4E-A703FA0FBA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64BC363-1E82-4F2B-9D35-E45B2C373E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_11.2" sheetId="1" r:id="rId1"/>
@@ -247,7 +247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
@@ -266,7 +266,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -971,7 +970,7 @@
         <v>131585.84</v>
       </c>
       <c r="N15" s="6">
-        <v>131398.07</v>
+        <v>129286.935</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.35">
@@ -1012,66 +1011,66 @@
         <v>35799.813999999991</v>
       </c>
       <c r="N16" s="8">
-        <v>91415.51</v>
+        <v>35684.474000000002</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="C17" s="5">
+        <v>74597</v>
+      </c>
+      <c r="D17" s="5">
+        <v>74550</v>
+      </c>
+      <c r="E17" s="5">
+        <v>69808</v>
+      </c>
+      <c r="F17" s="5">
+        <v>69394</v>
+      </c>
+      <c r="G17" s="5">
+        <v>69462</v>
+      </c>
+      <c r="H17" s="5">
+        <v>67294.790000000008</v>
+      </c>
+      <c r="I17" s="5">
+        <v>68654</v>
+      </c>
+      <c r="J17" s="5">
+        <v>58348</v>
+      </c>
+      <c r="K17" s="5">
+        <v>58727.19</v>
+      </c>
+      <c r="L17" s="5">
+        <v>58265.691999999901</v>
+      </c>
+      <c r="M17" s="5">
+        <v>58319.509999999886</v>
+      </c>
+      <c r="N17" s="6">
+        <v>57842.17</v>
+      </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="7">
-        <v>74597</v>
-      </c>
-      <c r="D18" s="7">
-        <v>74550</v>
-      </c>
-      <c r="E18" s="7">
-        <v>69808</v>
-      </c>
-      <c r="F18" s="7">
-        <v>69394</v>
-      </c>
-      <c r="G18" s="7">
-        <v>69462</v>
-      </c>
-      <c r="H18" s="7">
-        <v>67294.790000000008</v>
-      </c>
-      <c r="I18" s="7">
-        <v>68654</v>
-      </c>
-      <c r="J18" s="7">
-        <v>58348</v>
-      </c>
-      <c r="K18" s="7">
-        <v>58727.19</v>
-      </c>
-      <c r="L18" s="7">
-        <v>58265.691999999901</v>
-      </c>
-      <c r="M18" s="7">
-        <v>58319.509999999886</v>
-      </c>
-      <c r="N18" s="8">
-        <v>57842.17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="8"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
@@ -1159,18 +1158,18 @@
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">

--- a/RCN2023.xlsx
+++ b/RCN2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64BC363-1E82-4F2B-9D35-E45B2C373E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7620CE77-D717-437D-9F15-85D916265619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_11.2" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
     <t>Fuente: SICT. Subsecretaria de Infraestructura.</t>
   </si>
   <si>
-    <t>Actualización: mayo 2024</t>
+    <t>Actualización: mayo 2024.</t>
   </si>
 </sst>
 </file>

--- a/RCN2023.xlsx
+++ b/RCN2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7620CE77-D717-437D-9F15-85D916265619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6D7E9B-988B-4873-8AB6-61D6BB40BF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -98,7 +98,7 @@
     <t>Fuente: SICT. Subsecretaria de Infraestructura.</t>
   </si>
   <si>
-    <t>Actualización: mayo 2024.</t>
+    <t>Actualización: Mayo 2024.</t>
   </si>
 </sst>
 </file>
@@ -112,33 +112,33 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -146,7 +146,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -287,7 +287,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -295,28 +295,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -325,14 +325,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -509,27 +509,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
   <dimension ref="B2:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" customWidth="1"/>
-    <col min="2" max="2" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>13</v>
       </c>
@@ -570,7 +570,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -611,7 +611,7 @@
         <v>407783.05999999994</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
@@ -628,7 +628,7 @@
       <c r="M6" s="7"/>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -669,7 +669,7 @@
         <v>51819.299999999996</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
@@ -710,7 +710,7 @@
         <v>11138.99</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
@@ -751,7 +751,7 @@
         <v>40680.31</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
@@ -792,7 +792,7 @@
         <v>138946.04999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
@@ -833,7 +833,7 @@
         <v>159175.54</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
@@ -874,7 +874,7 @@
         <v>57842.17</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -891,7 +891,7 @@
       <c r="M13" s="5"/>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
@@ -932,7 +932,7 @@
         <v>184969.49</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
@@ -973,7 +973,7 @@
         <v>129286.935</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>35684.474000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>57842.17</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
@@ -1072,7 +1072,7 @@
       <c r="M18" s="7"/>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>168903.73</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>8</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>16065.76</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1171,7 +1171,7 @@
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="12"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>19</v>
       </c>

--- a/RCN2023.xlsx
+++ b/RCN2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6D7E9B-988B-4873-8AB6-61D6BB40BF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4FF671-8E59-493A-9CD5-363A5E37E961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -117,12 +117,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Geomanist"/>
       <family val="2"/>
@@ -137,17 +131,25 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="Geomanist"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="minor"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -245,24 +247,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -509,110 +511,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
   <dimension ref="B2:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="1" max="1" width="7" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="20.25" x14ac:dyDescent="0.45">
       <c r="B2" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="2">
         <v>2012</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="2">
         <v>2013</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="2">
         <v>2014</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="2">
         <v>2015</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="2">
         <v>2016</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="2">
         <v>2017</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="2">
         <v>2018</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="2">
         <v>2019</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="2">
         <v>2020</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="2">
         <v>2021</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="2">
         <v>2022</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="2">
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>377660</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>378923</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>389345</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>390301</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>393473</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>396008.67</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>407958</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>397312.71899999998</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>397937.61899999995</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>401366.40099999984</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <v>402621.94199999981</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="5">
         <v>407783.05999999994</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="7"/>
@@ -628,49 +631,49 @@
       <c r="M6" s="7"/>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>49652</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>49986</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>50241</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>50403</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>50499</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>50952</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>51197</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>51417.659</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>51405.106</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <v>51428.391999999993</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <v>51622.809000000001</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="5">
         <v>51819.299999999996</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="7">
@@ -710,49 +713,49 @@
         <v>11138.99</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>40752</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>40812</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>40784</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>40739</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>40681</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>40590</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>40583</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>40623.231</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>40561.678</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <v>40516.077999999994</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <v>40545.025999999998</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="5">
         <v>40680.31</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B10" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="7">
@@ -792,49 +795,49 @@
         <v>138946.04999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>169429</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>169311</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>175775</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>175521</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>177657</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>157348.32</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>154409</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>158196.5</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>157567.74099999998</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <v>161178.49100000001</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="4">
         <v>161053.93299999996</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="5">
         <v>159175.54</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="7">
@@ -874,25 +877,25 @@
         <v>57842.17</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B14" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="7">
@@ -932,49 +935,49 @@
         <v>184969.49</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>145576</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>144800</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>152252</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>152879</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>148849</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>146142</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>130989</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>131268.91</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>128712.93299999998</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <v>130643.11100000003</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="4">
         <v>131585.84</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="5">
         <v>129286.935</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B16" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="7">
@@ -1014,49 +1017,49 @@
         <v>35684.474000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>74597</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>74550</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>69808</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>69394</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>69462</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>67294.790000000008</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>68654</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>58348</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4">
         <v>58727.19</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <v>58265.691999999901</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="4">
         <v>58319.509999999886</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="5">
         <v>57842.17</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B18" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="7"/>
@@ -1072,89 +1075,89 @@
       <c r="M18" s="7"/>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>131722</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>133286</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>139956</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>141545</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>148822</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>158458.49599999996</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <v>161195</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <v>159082.33800000002</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="4">
         <v>160637.15599999999</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="4">
         <v>161151.20499999987</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="4">
         <v>161088.59099999999</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="5">
         <v>168903.73</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="10">
         <v>14499</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="10">
         <v>15043</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="10">
         <v>15283</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="10">
         <v>15252</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="10">
         <v>15636</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="10">
         <v>16453</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="10">
         <v>15996</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="10">
         <v>16041.891000000001</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="10">
         <v>15612.702000000001</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="10">
         <v>15447.367</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="10">
         <v>15828.187000000002</v>
       </c>
-      <c r="N20" s="10">
+      <c r="N20" s="11">
         <v>16065.76</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1171,31 +1174,20 @@
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
       <c r="N22" s="12"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N23" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>